--- a/reg/inf.xlsx
+++ b/reg/inf.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,193 +44,295 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148+</t>
+    <t xml:space="preserve">0.073</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-0.528</t>
+    <t xml:space="preserve">-2.550</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.080)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6.454)</t>
+    <t xml:space="preserve">(0.119)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10.512)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.068)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.153)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5.396)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.932)</t>
+    <t xml:space="preserve">-0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.076)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.053)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6.443)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.487)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.649)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.243)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.409)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.113)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.195***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.041)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.031)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.566)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.228)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
+    <t xml:space="preserve">0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.033)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.092)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.932)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.742)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.535)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.047)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_BUSINESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.066)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.539)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.290)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INNOVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.123+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.069)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lGRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.113***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.832)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpop</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.005</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.029)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.036)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.395)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.536)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_BUSINESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.031)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.885)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.151)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lGRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.595)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.135)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.437***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.837)</t>
+    <t xml:space="preserve">0.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.710)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.095)</t>
   </si>
   <si>
     <t xml:space="preserve">lbudget</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.911)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.196)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ltot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.461)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.016)</t>
+    <t xml:space="preserve">-0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.242)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.107)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -248,19 +350,19 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006</t>
+    <t xml:space="preserve">0.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.010</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314</t>
+    <t xml:space="preserve">0.323</t>
   </si>
 </sst>
 </file>
@@ -813,13 +915,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -833,16 +935,16 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -850,22 +952,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +975,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -896,22 +998,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -919,22 +1021,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -942,22 +1044,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -965,91 +1067,275 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>80</v>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/reg/inf.xlsx
+++ b/reg/inf.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,193 +44,196 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148+</t>
+    <t xml:space="preserve">0.405</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-0.528</t>
+    <t xml:space="preserve">0.088***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.080)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6.454)</t>
+    <t xml:space="preserve">(0.286)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.018)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.068)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.153)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5.396)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.932)</t>
+    <t xml:space="preserve">0.609*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.743+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.416***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.252)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.076)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.137)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.029)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.036)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.395)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.536)</t>
+    <t xml:space="preserve">0.076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.213***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.054)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.432)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108</t>
+    <t xml:space="preserve">0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.006*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.578+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.040)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.351)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lGRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113***</t>
   </si>
   <si>
     <t xml:space="preserve">0.137</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.031)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.885)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.151)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lGRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126</t>
+    <t xml:space="preserve">(0.027)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.136)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.305***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.283***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.038)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.007)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.595)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.135)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.437***</t>
-  </si>
-  <si>
     <t xml:space="preserve">(0.003)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.837)</t>
+    <t xml:space="preserve">(0.020)</t>
   </si>
   <si>
     <t xml:space="preserve">lbudget</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.911)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.196)</t>
+    <t xml:space="preserve">-0.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.041)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.137)</t>
   </si>
   <si>
     <t xml:space="preserve">ltot</t>
   </si>
   <si>
-    <t xml:space="preserve">0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.461)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.016)</t>
+    <t xml:space="preserve">0.064**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.171***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.190***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.045)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -239,7 +242,7 @@
     <t xml:space="preserve">Num.Obs.</t>
   </si>
   <si>
-    <t xml:space="preserve">37</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">40</t>
@@ -248,19 +251,22 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006</t>
+    <t xml:space="preserve">0.830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314</t>
+    <t xml:space="preserve">0.727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866</t>
   </si>
 </sst>
 </file>
@@ -721,13 +727,13 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -741,16 +747,16 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -758,22 +764,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -781,22 +787,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -804,13 +810,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -827,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -839,10 +845,10 @@
         <v>48</v>
       </c>
       <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -850,22 +856,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +879,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -902,16 +908,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -925,16 +931,16 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -942,22 +948,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -965,76 +971,76 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1043,13 +1049,13 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
